--- a/recursos/esquema_uisrael_v2.4.xlsx
+++ b/recursos/esquema_uisrael_v2.4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Dropbox\asistencia_uisrael\recursos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\asistencia_uisrael\recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="30" windowWidth="27315" windowHeight="13350" tabRatio="865" firstSheet="10" activeTab="17"/>
+    <workbookView xWindow="1200" yWindow="30" windowWidth="27315" windowHeight="13350" tabRatio="865" firstSheet="5" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="area_conocimiento" sheetId="23" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="145">
   <si>
     <t>usuario</t>
   </si>
@@ -1174,7 +1174,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,46 +1544,54 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="A1:D9"/>
+      <selection activeCell="E9" sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1594,10 +1602,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1605,13 +1616,16 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1619,65 +1633,80 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
         <v>8</v>
       </c>
     </row>
@@ -2604,7 +2633,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
